--- a/TestData/orangehrm.xlsx
+++ b/TestData/orangehrm.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -35,11 +35,8 @@
       <b val="1"/>
       <sz val="11"/>
     </font>
-    <font>
-      <b val="1"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -48,20 +45,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF60B212"/>
-        <bgColor rgb="FF60B212"/>
+        <fgColor rgb="0060b212"/>
+        <bgColor rgb="0060b212"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FFFF0000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0060b212"/>
-        <bgColor rgb="0060b212"/>
+        <fgColor rgb="00ff0000"/>
+        <bgColor rgb="00ff0000"/>
       </patternFill>
     </fill>
   </fills>
@@ -77,14 +68,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -431,7 +420,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13:D15"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -479,7 +468,7 @@
           <t>Valid</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="D2" s="3" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -496,7 +485,7 @@
           <t>Invalid</t>
         </is>
       </c>
-      <c r="D3" s="3" t="inlineStr">
+      <c r="D3" s="4" t="inlineStr">
         <is>
           <t>Fail - Missing Data</t>
         </is>
@@ -513,7 +502,7 @@
           <t>Invalid</t>
         </is>
       </c>
-      <c r="D4" s="3" t="inlineStr">
+      <c r="D4" s="4" t="inlineStr">
         <is>
           <t>Fail - Missing Data</t>
         </is>
@@ -525,7 +514,7 @@
           <t>Invalid</t>
         </is>
       </c>
-      <c r="D5" s="3" t="inlineStr">
+      <c r="D5" s="4" t="inlineStr">
         <is>
           <t>Fail - Missing Data</t>
         </is>
@@ -547,7 +536,7 @@
           <t>Invalid</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="D6" s="3" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -569,7 +558,7 @@
           <t>Invalid</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
+      <c r="D7" s="3" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -591,7 +580,7 @@
           <t>Invalid</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="D8" s="3" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -613,7 +602,7 @@
           <t>Invalid</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
+      <c r="D9" s="3" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -635,7 +624,7 @@
           <t>Valid</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="D10" s="3" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -657,7 +646,7 @@
           <t>Invalid</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
+      <c r="D11" s="3" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -679,7 +668,7 @@
           <t>Invalid</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="D12" s="3" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -703,7 +692,7 @@
       </c>
       <c r="D13" s="3" t="inlineStr">
         <is>
-          <t>Fail - Missing Data</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -725,7 +714,7 @@
       </c>
       <c r="D14" s="3" t="inlineStr">
         <is>
-          <t>Fail - Missing Data</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -745,7 +734,7 @@
           <t>Invalid</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
+      <c r="D15" s="3" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -767,7 +756,7 @@
           <t>Invalid</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="D16" s="3" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -789,7 +778,7 @@
           <t>Invalid</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D17" s="3" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -811,7 +800,7 @@
           <t>Invalid</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
+      <c r="D18" s="3" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -833,7 +822,7 @@
           <t>Valid</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
+      <c r="D19" s="3" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -853,47 +842,42 @@
   </sheetPr>
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="15" customWidth="1" min="1" max="6"/>
-    <col width="15" customWidth="1" min="2" max="2"/>
-    <col width="15" customWidth="1" min="3" max="3"/>
-    <col width="15" customWidth="1" min="4" max="4"/>
-    <col width="15" customWidth="1" min="5" max="5"/>
-    <col width="15" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>First Name</t>
         </is>
       </c>
-      <c r="B1" s="5" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>Middle Name</t>
         </is>
       </c>
-      <c r="C1" s="5" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Last Name</t>
         </is>
       </c>
-      <c r="D1" s="5" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>Employee ID</t>
         </is>
       </c>
-      <c r="E1" s="5" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>User Created</t>
         </is>
       </c>
-      <c r="F1" s="5" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>User Validated</t>
         </is>
@@ -920,16 +904,6 @@
           <t>IRON001</t>
         </is>
       </c>
-      <c r="E2" s="6" t="inlineStr">
-        <is>
-          <t>Created</t>
-        </is>
-      </c>
-      <c r="F2" s="6" t="inlineStr">
-        <is>
-          <t>Validated</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -952,16 +926,6 @@
           <t>THOR002</t>
         </is>
       </c>
-      <c r="E3" s="6" t="inlineStr">
-        <is>
-          <t>Created</t>
-        </is>
-      </c>
-      <c r="F3" s="6" t="inlineStr">
-        <is>
-          <t>Validated</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -984,16 +948,6 @@
           <t>CAP003</t>
         </is>
       </c>
-      <c r="E4" s="6" t="inlineStr">
-        <is>
-          <t>Created</t>
-        </is>
-      </c>
-      <c r="F4" s="6" t="inlineStr">
-        <is>
-          <t>Validated</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1016,16 +970,6 @@
           <t>HULK004</t>
         </is>
       </c>
-      <c r="E5" s="6" t="inlineStr">
-        <is>
-          <t>Created</t>
-        </is>
-      </c>
-      <c r="F5" s="6" t="inlineStr">
-        <is>
-          <t>Validated</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1048,16 +992,6 @@
           <t>SPDR005</t>
         </is>
       </c>
-      <c r="E6" s="6" t="inlineStr">
-        <is>
-          <t>Created</t>
-        </is>
-      </c>
-      <c r="F6" s="6" t="inlineStr">
-        <is>
-          <t>Validated</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1080,16 +1014,6 @@
           <t>BLKW006</t>
         </is>
       </c>
-      <c r="E7" s="6" t="inlineStr">
-        <is>
-          <t>Created</t>
-        </is>
-      </c>
-      <c r="F7" s="6" t="inlineStr">
-        <is>
-          <t>Validated</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1112,16 +1036,6 @@
           <t>HAWK007</t>
         </is>
       </c>
-      <c r="E8" s="6" t="inlineStr">
-        <is>
-          <t>Created</t>
-        </is>
-      </c>
-      <c r="F8" s="6" t="inlineStr">
-        <is>
-          <t>Validated</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1144,16 +1058,6 @@
           <t>SCWT008</t>
         </is>
       </c>
-      <c r="E9" s="6" t="inlineStr">
-        <is>
-          <t>Created</t>
-        </is>
-      </c>
-      <c r="F9" s="6" t="inlineStr">
-        <is>
-          <t>Validated</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1176,16 +1080,6 @@
           <t>DRST009</t>
         </is>
       </c>
-      <c r="E10" s="6" t="inlineStr">
-        <is>
-          <t>Created</t>
-        </is>
-      </c>
-      <c r="F10" s="6" t="inlineStr">
-        <is>
-          <t>Validated</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1206,16 +1100,6 @@
       <c r="D11" t="inlineStr">
         <is>
           <t>CAPM010</t>
-        </is>
-      </c>
-      <c r="E11" s="6" t="inlineStr">
-        <is>
-          <t>Created</t>
-        </is>
-      </c>
-      <c r="F11" s="6" t="inlineStr">
-        <is>
-          <t>Validated</t>
         </is>
       </c>
     </row>

--- a/TestData/orangehrm.xlsx
+++ b/TestData/orangehrm.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -45,14 +45,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0060b212"/>
-        <bgColor rgb="0060b212"/>
+        <fgColor rgb="00ff0000"/>
+        <bgColor rgb="00ff0000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00ff0000"/>
-        <bgColor rgb="00ff0000"/>
+        <fgColor rgb="0060b212"/>
+        <bgColor rgb="0060b212"/>
       </patternFill>
     </fill>
   </fills>
@@ -419,8 +419,8 @@
   </sheetPr>
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -468,7 +468,7 @@
           <t>Valid</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="D2" s="4" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -485,7 +485,7 @@
           <t>Invalid</t>
         </is>
       </c>
-      <c r="D3" s="4" t="inlineStr">
+      <c r="D3" s="3" t="inlineStr">
         <is>
           <t>Fail - Missing Data</t>
         </is>
@@ -502,7 +502,7 @@
           <t>Invalid</t>
         </is>
       </c>
-      <c r="D4" s="4" t="inlineStr">
+      <c r="D4" s="3" t="inlineStr">
         <is>
           <t>Fail - Missing Data</t>
         </is>
@@ -514,7 +514,7 @@
           <t>Invalid</t>
         </is>
       </c>
-      <c r="D5" s="4" t="inlineStr">
+      <c r="D5" s="3" t="inlineStr">
         <is>
           <t>Fail - Missing Data</t>
         </is>
@@ -536,7 +536,7 @@
           <t>Invalid</t>
         </is>
       </c>
-      <c r="D6" s="3" t="inlineStr">
+      <c r="D6" s="4" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -558,7 +558,7 @@
           <t>Invalid</t>
         </is>
       </c>
-      <c r="D7" s="3" t="inlineStr">
+      <c r="D7" s="4" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -580,7 +580,7 @@
           <t>Invalid</t>
         </is>
       </c>
-      <c r="D8" s="3" t="inlineStr">
+      <c r="D8" s="4" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -602,7 +602,7 @@
           <t>Invalid</t>
         </is>
       </c>
-      <c r="D9" s="3" t="inlineStr">
+      <c r="D9" s="4" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -624,7 +624,7 @@
           <t>Valid</t>
         </is>
       </c>
-      <c r="D10" s="3" t="inlineStr">
+      <c r="D10" s="4" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -646,7 +646,7 @@
           <t>Invalid</t>
         </is>
       </c>
-      <c r="D11" s="3" t="inlineStr">
+      <c r="D11" s="4" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -668,7 +668,7 @@
           <t>Invalid</t>
         </is>
       </c>
-      <c r="D12" s="3" t="inlineStr">
+      <c r="D12" s="4" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -690,7 +690,7 @@
           <t>Invalid</t>
         </is>
       </c>
-      <c r="D13" s="3" t="inlineStr">
+      <c r="D13" s="4" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -712,7 +712,7 @@
           <t>Invalid</t>
         </is>
       </c>
-      <c r="D14" s="3" t="inlineStr">
+      <c r="D14" s="4" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -734,7 +734,7 @@
           <t>Invalid</t>
         </is>
       </c>
-      <c r="D15" s="3" t="inlineStr">
+      <c r="D15" s="4" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -756,7 +756,7 @@
           <t>Invalid</t>
         </is>
       </c>
-      <c r="D16" s="3" t="inlineStr">
+      <c r="D16" s="4" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -778,7 +778,7 @@
           <t>Invalid</t>
         </is>
       </c>
-      <c r="D17" s="3" t="inlineStr">
+      <c r="D17" s="4" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -800,7 +800,7 @@
           <t>Invalid</t>
         </is>
       </c>
-      <c r="D18" s="3" t="inlineStr">
+      <c r="D18" s="4" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -822,7 +822,7 @@
           <t>Valid</t>
         </is>
       </c>
-      <c r="D19" s="3" t="inlineStr">
+      <c r="D19" s="4" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -842,7 +842,7 @@
   </sheetPr>
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
